--- a/biology/Histoire de la zoologie et de la botanique/Dean_Conant_Worcester/Dean_Conant_Worcester.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Dean_Conant_Worcester/Dean_Conant_Worcester.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dean Conant Worcester est un ornithologue américain, né en 1866 à Thetford dans le Vermont et mort en 1924.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l’université du Michigan où il obtient son Bachelor of Arts en 1889. Il participe à l’expédition conduite par Joseph Beal Steere (1842-1940) aux Philippines de 1887 à 1889 aux côtés du médecin-militaire Frank Swift Bourns.
 De 1899 à 1901, il fait partie de la Commission américaine sur les Philippines. Jusqu’en 1913, il est secrétaire au ministère de l’intérieur auprès du gouvernement de l’archipel.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Worcester est notamment l'auteur de :
 The Philippine Islands and Their People (1898)
